--- a/Desktop/digest/POW 030924/SAMPEL.xlsx
+++ b/Desktop/digest/POW 030924/SAMPEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="12"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="7" r:id="rId1"/>
@@ -1395,210 +1395,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1647,6 +1443,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1655,6 +1496,165 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2554,7 +2554,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2608,8 +2608,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923328"/>
-              <a:chExt cx="2078188" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078186" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2675,8 +2675,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923328"/>
-                <a:ext cx="304606" cy="229184"/>
+                <a:off x="5019292" y="923328"/>
+                <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2722,7 +2722,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792678" y="927231"/>
+                <a:off x="6792677" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2991,7 +2991,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3625,7 +3625,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3677,10 +3677,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3700,7 +3700,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3746,7 +3746,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3793,7 +3793,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4062,7 +4062,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4748,7 +4748,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4800,10 +4800,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -4823,7 +4823,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4869,7 +4869,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4916,7 +4916,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -5185,7 +5185,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5871,7 +5871,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5925,8 +5925,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -5946,7 +5946,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -5992,7 +5992,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6039,7 +6039,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6308,7 +6308,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6994,7 +6994,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7046,10 +7046,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
-              <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019299" y="923329"/>
-              <a:chExt cx="2078181" cy="229184"/>
+              <a:off x="4531682" y="897177"/>
+              <a:ext cx="1840543" cy="346787"/>
+              <a:chOff x="5019297" y="923328"/>
+              <a:chExt cx="2078182" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7115,7 +7115,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019299" y="923329"/>
+                <a:off x="5019297" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7162,7 +7162,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792678" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7431,7 +7431,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8059,7 +8059,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8111,10 +8111,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8134,7 +8134,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8180,7 +8180,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8227,7 +8227,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8496,7 +8496,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9124,7 +9124,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9178,8 +9178,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -9199,7 +9199,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -9245,7 +9245,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9292,7 +9292,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9561,7 +9561,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10247,7 +10247,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10299,10 +10299,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10322,7 +10322,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -10368,7 +10368,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10415,7 +10415,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10684,7 +10684,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11370,7 +11370,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11422,10 +11422,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -11445,7 +11445,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11491,7 +11491,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11538,7 +11538,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11807,7 +11807,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12493,7 +12493,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12545,10 +12545,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -12568,7 +12568,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -12614,7 +12614,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12661,7 +12661,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12930,7 +12930,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13616,7 +13616,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13668,10 +13668,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -13691,7 +13691,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -13737,7 +13737,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13784,7 +13784,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -14053,7 +14053,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14739,7 +14739,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -14791,10 +14791,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
+              <a:off x="4531682" y="897177"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019291" y="923329"/>
-              <a:chExt cx="2078190" cy="229184"/>
+              <a:chOff x="5019292" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -14814,7 +14814,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939528" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -14860,7 +14860,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923329"/>
+                <a:off x="5019292" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -14907,7 +14907,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792681" y="927231"/>
+                <a:off x="6792683" y="927231"/>
                 <a:ext cx="304800" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15176,7 +15176,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15841,8 +15841,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16944,7 +16944,7 @@
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 H4:H5">
       <formula1>"Sila Pilih, T1, T2, T3, T4"</formula1>
     </dataValidation>
@@ -16957,8 +16957,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 F23:F25">
       <formula1>"Sila Pilih, YA, TIDAK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17">
-      <formula1>"Sila Pilih, KAPSUL KERAS, SERBUK, CECAIR, PIL, KAPSUL LEMBUT, KRIM, PASTE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G17">
+      <formula1>"Sila Pilih, KAPSUL KERAS, SERBUK, CECAIR, PIL KERAS, KAPSUL LEMBUT, KRIM, PIL PASTE, TABLET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+      <formula1>"Sila Pilih, KAPSUL KERAS, SERBUK, CECAIR, PIL KERAS, KAPSUL LEMBUT, KRIM, PIL PASTE, TABLET"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16986,46 +16989,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B14</f>
         <v>2024080227</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G14</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -17038,11 +17041,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -17051,196 +17054,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -17249,16 +17252,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -17268,70 +17271,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -17373,79 +17376,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -17453,47 +17491,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17686,46 +17689,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B15</f>
         <v>2024080228</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G15</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -17738,11 +17741,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -17751,196 +17754,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -17949,16 +17952,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -17968,70 +17971,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -18073,79 +18076,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18153,47 +18191,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18386,46 +18389,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B16</f>
         <v>2024080236</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G16</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -18438,11 +18441,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -18451,196 +18454,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -18649,16 +18652,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -18668,70 +18671,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -18773,79 +18776,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18853,47 +18891,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19070,7 +19073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -19086,46 +19089,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B17</f>
         <v>2024080237</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G17</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -19138,11 +19141,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -19151,196 +19154,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -19349,16 +19352,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="43" t="s">
         <v>74</v>
       </c>
@@ -19368,70 +19371,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="42"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="42"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="42"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="42"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="44"/>
       <c r="H22" s="18"/>
     </row>
@@ -19473,114 +19476,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19588,12 +19556,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19786,46 +19789,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B6</f>
         <v>2024080218</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G6</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -19838,11 +19841,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -19851,196 +19854,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -20049,16 +20052,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -20068,70 +20071,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -20173,79 +20176,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -20253,47 +20291,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20486,46 +20489,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B7</f>
         <v>2024080220</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G7</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -20538,11 +20541,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -20551,196 +20554,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -20749,16 +20752,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -20768,70 +20771,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -20873,79 +20876,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -20953,47 +20991,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21186,46 +21189,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B8</f>
         <v>2024080221</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G8</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -21238,11 +21241,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -21251,76 +21254,76 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="163"/>
       <c r="D9" s="164"/>
       <c r="E9" s="165"/>
@@ -21328,119 +21331,119 @@
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -21449,16 +21452,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -21468,70 +21471,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -21573,79 +21576,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21653,47 +21691,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21870,8 +21873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21886,46 +21889,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B9</f>
         <v>2024080222</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G9</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -21938,11 +21941,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -21951,196 +21954,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -22149,16 +22152,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -22168,70 +22171,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -22273,79 +22276,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -22353,47 +22391,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22586,46 +22589,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B10</f>
         <v>2024080223</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G10</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -22638,11 +22641,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -22651,196 +22654,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -22849,16 +22852,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -22868,70 +22871,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -22973,79 +22976,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23053,47 +23091,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23286,46 +23289,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B11</f>
         <v>2024080224</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G11</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -23338,11 +23341,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -23351,196 +23354,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -23549,16 +23552,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -23568,70 +23571,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -23673,79 +23676,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23753,47 +23791,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23986,46 +23989,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B12</f>
         <v>2024080225</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G12</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -24038,11 +24041,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -24051,196 +24054,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -24249,16 +24252,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -24268,70 +24271,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -24373,79 +24376,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24453,47 +24491,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24686,46 +24689,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84">
         <f>FormTitan!B13</f>
         <v>2024080226</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="str">
         <f>FormTitan!G13</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -24738,11 +24741,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 030924</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -24751,196 +24754,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="92" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="127"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0.502</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f>FormTitan!F3</f>
         <v>50.077000000000005</v>
       </c>
-      <c r="H7" s="134"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="160" t="str">
+      <c r="B8" s="101"/>
+      <c r="C8" s="107" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 030924</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0.503</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f>FormTitan!F4</f>
         <v>50.216000000000001</v>
       </c>
-      <c r="H8" s="134"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f>FormTitan!F5</f>
         <v>50.088999999999999</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="124" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="128">
+      <c r="B12" s="120">
         <v>2.5</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="5">
         <f>B12/F8</f>
         <v>4.9701789264413518</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="123">
         <f>B12/F9</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="112"/>
+      <c r="H12" s="124"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="125">
         <v>0.25</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="5">
         <f>B13/F8</f>
         <v>0.49701789264413521</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="123">
         <f>B13/F9</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="124"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="128">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="5">
         <f>B14/F8</f>
         <v>9.9403578528827037</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="123">
         <f>B14/F9</f>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="125">
         <v>0.15</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="5">
         <f>B15/F8</f>
         <v>0.29821073558648109</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="123">
         <f>B15/F9</f>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -24949,16 +24952,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -24968,70 +24971,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -25073,79 +25076,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="94"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="157" t="str">
         <f>FormTitan!B19</f>
         <v>PERMIT         AMIR</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84">
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159">
         <f>FormTitan!B20</f>
         <v>45538</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -25153,47 +25191,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
